--- a/Reports/AreDifferent/decryption_hotWater_byHouse/decryption_hotWater - копия.xlsx
+++ b/Reports/AreDifferent/decryption_hotWater_byHouse/decryption_hotWater - копия.xlsx
@@ -808,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,7 +938,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" s="38" t="s">
         <v>76</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="30">
       <c r="A11" s="38" t="s">
         <v>78</v>
       </c>
@@ -1277,6 +1277,9 @@
       </c>
       <c r="Y12" s="30" t="s">
         <v>20</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26">
